--- a/PomFactory/src/main/java/com/test/automation/uiAutomation/data/TestData.xlsx
+++ b/PomFactory/src/main/java/com/test/automation/uiAutomation/data/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
   <si>
     <t>password</t>
   </si>
@@ -30,10 +30,13 @@
     <t>userName</t>
   </si>
   <si>
-    <t>piyush@gmail.com</t>
+    <t>y</t>
   </si>
   <si>
-    <t>y</t>
+    <t>automation@gmail.com</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -362,13 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -384,90 +389,118 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A3:A11" r:id="rId2" display="automation@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PomFactory/src/main/java/com/test/automation/uiAutomation/data/TestData.xlsx
+++ b/PomFactory/src/main/java/com/test/automation/uiAutomation/data/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>password</t>
   </si>
@@ -33,10 +33,7 @@
     <t>y</t>
   </si>
   <si>
-    <t>automation@gmail.com</t>
-  </si>
-  <si>
-    <t>n</t>
+    <t>automation22@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -365,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,98 +406,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3:A11" r:id="rId2" display="automation@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
